--- a/artfynd/A 53008-2019.xlsx
+++ b/artfynd/A 53008-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY83"/>
+  <dimension ref="A1:AY84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11301,6 +11301,134 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>112161763</v>
+      </c>
+      <c r="B84" t="n">
+        <v>56314</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>100067</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Havsörn</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Haliaeetus albicilla</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Tursköp, Västraby, Sk</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>359556.1925513759</v>
+      </c>
+      <c r="R84" t="n">
+        <v>6225173.895595446</v>
+      </c>
+      <c r="S84" t="n">
+        <v>50</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Kattarp</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>Henrik Ehrenberg</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>Henrik Ehrenberg, Monica Pedersen</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 53008-2019.xlsx
+++ b/artfynd/A 53008-2019.xlsx
@@ -11359,10 +11359,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>359556.1925513759</v>
+        <v>359556</v>
       </c>
       <c r="R84" t="n">
-        <v>6225173.895595446</v>
+        <v>6225174</v>
       </c>
       <c r="S84" t="n">
         <v>50</v>
@@ -11392,19 +11392,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA84" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB84" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD84" t="b">

--- a/artfynd/A 53008-2019.xlsx
+++ b/artfynd/A 53008-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY84"/>
+  <dimension ref="A1:AY86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>63504530</v>
+        <v>81426635</v>
       </c>
       <c r="B6" t="n">
-        <v>101325</v>
+        <v>98520</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1202,37 +1202,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222056</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Circaea lutetiana</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Turköpsskogen, Sk</t>
+          <t>Tursköps skog, mitten, Sk</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>359989.7269637102</v>
+        <v>359285.909424881</v>
       </c>
       <c r="R6" t="n">
-        <v>6224511.465023013</v>
+        <v>6224902.969536935</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1992-07-15</t>
+          <t>2008-04-25</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>1992-07-15</t>
+          <t>2008-04-25</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1274,11 +1274,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Circaea lutetiana/3C5b3349/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1290,37 +1285,32 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>ädellövskog</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>SkFlora    417387</t>
+          <t>Torr gränsvall i brynet</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Charlotte Wigermo</t>
+          <t>Stefan Andersson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Sven-Åke Hanson</t>
+          <t>Jan-Erik Hederås</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>Skånes Flora (1989-2006)</t>
+          <t>Skånes Flora Millora 2008-2015</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>63504743</v>
+        <v>63504530</v>
       </c>
       <c r="B7" t="n">
-        <v>96361</v>
+        <v>101325</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1333,16 +1323,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219864</v>
+        <v>222056</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sankt pers nycklar</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Orchis mascula</t>
+          <t>Circaea lutetiana</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1353,14 +1343,14 @@
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Tursköpsskogen, N-delen, Sk</t>
+          <t>Turköpsskogen, Sk</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>359384.7360546838</v>
+        <v>359989.7269637102</v>
       </c>
       <c r="R7" t="n">
-        <v>6225003.953457785</v>
+        <v>6224511.465023013</v>
       </c>
       <c r="S7" t="n">
         <v>100</v>
@@ -1387,7 +1377,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1993-05-16</t>
+          <t>1992-07-15</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1397,7 +1387,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>1993-05-16</t>
+          <t>1992-07-15</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1407,7 +1397,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Orchis mascula/3C5b3843/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
+          <t>Circaea lutetiana/3C5b3349/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1421,12 +1411,12 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>skog, ca 20+30 bl. ex</t>
+          <t>ädellövskog</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>SkFlora    417575</t>
+          <t>SkFlora    417387</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1448,10 +1438,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>63504479</v>
+        <v>63504743</v>
       </c>
       <c r="B8" t="n">
-        <v>103813</v>
+        <v>96361</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1460,20 +1450,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220785</v>
+        <v>219864</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Sankt pers nycklar</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Orchis mascula</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1484,14 +1474,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Turköpsskogen, N-delen, Sk</t>
+          <t>Tursköpsskogen, N-delen, Sk</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>359383.562556965</v>
+        <v>359384.7360546838</v>
       </c>
       <c r="R8" t="n">
-        <v>6225104.317120794</v>
+        <v>6225003.953457785</v>
       </c>
       <c r="S8" t="n">
         <v>100</v>
@@ -1518,7 +1508,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1992-05-24</t>
+          <t>1993-05-16</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1528,7 +1518,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>1992-05-24</t>
+          <t>1993-05-16</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1538,7 +1528,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior/3C5b3943/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
+          <t>Orchis mascula/3C5b3843/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1552,12 +1542,12 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>skog</t>
+          <t>skog, ca 20+30 bl. ex</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>SkFlora    417164</t>
+          <t>SkFlora    417575</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1579,10 +1569,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63504582</v>
+        <v>81426669</v>
       </c>
       <c r="B9" t="n">
-        <v>100515</v>
+        <v>103813</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1591,31 +1581,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>223246</v>
+        <v>220785</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Turköpsskogen, N-delen, Sk</t>
+          <t>Tursköps skog, NV, Sk</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1625,7 +1615,7 @@
         <v>6225104.317120794</v>
       </c>
       <c r="S9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1649,7 +1639,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1992-05-24</t>
+          <t>2008-05-27</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1659,7 +1649,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>1992-05-24</t>
+          <t>2008-05-27</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1667,11 +1657,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ulmus glabra/3C5b3943/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1683,37 +1668,32 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>skog, flera små ex</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>SkFlora    417184</t>
+          <t>skogsstig</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Charlotte Wigermo</t>
+          <t>Stefan Andersson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Sven-Åke Hanson</t>
+          <t>Jan-Erik Hederås</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>Skånes Flora (1989-2006)</t>
+          <t>Skånes Flora Millora 2008-2015</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63504620</v>
+        <v>63504582</v>
       </c>
       <c r="B10" t="n">
-        <v>104654</v>
+        <v>100515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1722,38 +1702,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220015</v>
+        <v>223246</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hässleklocka</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Campanula latifolia</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Turköpsskogen, Sk</t>
+          <t>Turköpsskogen, N-delen, Sk</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>359384.7360546838</v>
+        <v>359383.562556965</v>
       </c>
       <c r="R10" t="n">
-        <v>6225003.953457785</v>
+        <v>6225104.317120794</v>
       </c>
       <c r="S10" t="n">
         <v>100</v>
@@ -1780,7 +1760,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1992-06-22</t>
+          <t>1992-05-24</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1790,7 +1770,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>1992-06-22</t>
+          <t>1992-05-24</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1800,7 +1780,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Campanula latifolia/3C5b3843/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
+          <t>Ulmus glabra/3C5b3943/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1814,12 +1794,12 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>ädellövskog, 3 ex</t>
+          <t>skog, flera små ex</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>SkFlora    417337</t>
+          <t>SkFlora    417184</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1841,10 +1821,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>63504614</v>
+        <v>63504620</v>
       </c>
       <c r="B11" t="n">
-        <v>101325</v>
+        <v>104654</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1857,16 +1837,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222056</v>
+        <v>220015</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Hässleklocka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Circaea lutetiana</t>
+          <t>Campanula latifolia</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1881,10 +1861,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>359284.7198075568</v>
+        <v>359384.7360546838</v>
       </c>
       <c r="R11" t="n">
-        <v>6225002.778919706</v>
+        <v>6225003.953457785</v>
       </c>
       <c r="S11" t="n">
         <v>100</v>
@@ -1931,7 +1911,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Circaea lutetiana/3C5b3842/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
+          <t>Campanula latifolia/3C5b3843/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1945,12 +1925,12 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>ädellövskog</t>
+          <t>ädellövskog, 3 ex</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>SkFlora    417331</t>
+          <t>SkFlora    417337</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1972,10 +1952,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>63504589</v>
+        <v>63504614</v>
       </c>
       <c r="B12" t="n">
-        <v>104015</v>
+        <v>101325</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1984,20 +1964,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1654</v>
+        <v>222056</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Veronica montana</t>
+          <t>Circaea lutetiana</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2008,14 +1988,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Turköpsskogen, N-delen, Sk</t>
+          <t>Turköpsskogen, Sk</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>359384.7360546838</v>
+        <v>359284.7198075568</v>
       </c>
       <c r="R12" t="n">
-        <v>6225003.953457785</v>
+        <v>6225002.778919706</v>
       </c>
       <c r="S12" t="n">
         <v>100</v>
@@ -2042,7 +2022,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1992-05-24</t>
+          <t>1992-06-22</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2052,7 +2032,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>1992-05-24</t>
+          <t>1992-06-22</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2062,7 +2042,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Veronica montana/3C5b3843/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
+          <t>Circaea lutetiana/3C5b3842/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2076,12 +2056,12 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>skog, mest på skogsvägen</t>
+          <t>ädellövskog</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>SkFlora    417189</t>
+          <t>SkFlora    417331</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2103,10 +2083,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>63504382</v>
+        <v>63504589</v>
       </c>
       <c r="B13" t="n">
-        <v>104654</v>
+        <v>104015</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2115,20 +2095,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220015</v>
+        <v>1654</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hässleklocka</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Campanula latifolia</t>
+          <t>Veronica montana</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2139,14 +2119,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Turköpsskogen N-delen, Sk</t>
+          <t>Turköpsskogen, N-delen, Sk</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>359385.9279962312</v>
+        <v>359384.7360546838</v>
       </c>
       <c r="R13" t="n">
-        <v>6224904.144240533</v>
+        <v>6225003.953457785</v>
       </c>
       <c r="S13" t="n">
         <v>100</v>
@@ -2173,7 +2153,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1988-07-21</t>
+          <t>1992-05-24</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2183,7 +2163,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>1988-07-21</t>
+          <t>1992-05-24</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2193,7 +2173,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Campanula latifolia/3C5b3743/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
+          <t>Veronica montana/3C5b3843/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2207,12 +2187,12 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>skog</t>
+          <t>skog, mest på skogsvägen</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>SkFlora    416602</t>
+          <t>SkFlora    417189</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2234,10 +2214,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>63504619</v>
+        <v>81431094</v>
       </c>
       <c r="B14" t="n">
-        <v>96370</v>
+        <v>100289</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2246,41 +2226,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219875</v>
+        <v>1403</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Skånebjörnbär</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Platanthera chlorantha</t>
+          <t>Rubus axillaris</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Custer) Rchb.</t>
+          <t>Lej.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Turköpsskogen, Sk</t>
+          <t>Tursköps skog, NO, Sk</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>359384.7360546838</v>
+        <v>359581.8357165139</v>
       </c>
       <c r="R14" t="n">
-        <v>6225003.953457785</v>
+        <v>6225206.495396418</v>
       </c>
       <c r="S14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2304,7 +2284,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1992-06-22</t>
+          <t>2008-07-23</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2314,7 +2294,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>1992-06-22</t>
+          <t>2008-07-23</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2322,11 +2302,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Platanthera chlorantha/3C5b3843/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2338,37 +2313,32 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>ädellövskog, ca 10 ex</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>SkFlora    417336</t>
+          <t>lövskogskärr</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Charlotte Wigermo</t>
+          <t>Stefan Andersson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Sven-Åke Hanson</t>
+          <t>Jan-Erik Hederås</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>Skånes Flora (1989-2006)</t>
+          <t>Skånes Flora Millora 2008-2015</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>63504717</v>
+        <v>63504382</v>
       </c>
       <c r="B15" t="n">
-        <v>96185</v>
+        <v>104654</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2381,34 +2351,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221918</v>
+        <v>220015</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lundvårlök</t>
+          <t>Hässleklocka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Gagea spathacea</t>
+          <t>Campanula latifolia</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hayne) Salisb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Tursköpsskogen, N-delen, Sk</t>
+          <t>Turköpsskogen N-delen, Sk</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>359284.7198075568</v>
+        <v>359385.9279962312</v>
       </c>
       <c r="R15" t="n">
-        <v>6225002.778919706</v>
+        <v>6224904.144240533</v>
       </c>
       <c r="S15" t="n">
         <v>100</v>
@@ -2435,7 +2405,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>1993-04-25</t>
+          <t>1988-07-21</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2445,7 +2415,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>1993-04-25</t>
+          <t>1988-07-21</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2455,7 +2425,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Gagea spathacea/3C5b3842/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
+          <t>Campanula latifolia/3C5b3743/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2474,7 +2444,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>SkFlora    417550</t>
+          <t>SkFlora    416602</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2496,10 +2466,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>68566109</v>
+        <v>63504619</v>
       </c>
       <c r="B16" t="n">
-        <v>4696</v>
+        <v>96370</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2508,55 +2478,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>101929</v>
+        <v>219875</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Grönvit nattviol</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Trinodes hirtus</t>
+          <t>Platanthera chlorantha</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fabricius, 1781)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>(Custer) Rchb.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Tursköp 12, Sk</t>
+          <t>Turköpsskogen, Sk</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>359815.1473649645</v>
+        <v>359384.7360546838</v>
       </c>
       <c r="R16" t="n">
-        <v>6224655.970964281</v>
+        <v>6225003.953457785</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2580,7 +2536,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2017-06-15</t>
+          <t>1992-06-22</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2590,7 +2546,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2017-07-27</t>
+          <t>1992-06-22</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2600,7 +2556,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ihålig ask</t>
+          <t>Platanthera chlorantha/3C5b3843/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2614,28 +2570,37 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Bitvis något fuktig ädellövskog med bok, ek, ask och avenbok</t>
+          <t>ädellövskog, ca 10 ex</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>SkFlora    417336</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Charlotte Wigermo</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr"/>
+          <t>Sven-Åke Hanson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Skånes Flora (1989-2006)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>68566334</v>
+        <v>63504717</v>
       </c>
       <c r="B17" t="n">
-        <v>4755</v>
+        <v>96185</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2648,56 +2613,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100857</v>
+        <v>221918</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Robust tickgnagare</t>
+          <t>Lundvårlök</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dorcatoma robusta</t>
+          <t>Gagea spathacea</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Strand, 1938</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>(Hayne) Salisb.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Tursköp 10, Sk</t>
+          <t>Tursköpsskogen, N-delen, Sk</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>359697.9757689129</v>
+        <v>359284.7198075568</v>
       </c>
       <c r="R17" t="n">
-        <v>6224625.804638037</v>
+        <v>6225002.778919706</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2721,7 +2667,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2017-05-15</t>
+          <t>1993-04-25</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2731,7 +2677,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2017-06-15</t>
+          <t>1993-04-25</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2741,7 +2687,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Bokstubbe med fnösktickor</t>
+          <t>Gagea spathacea/3C5b3842/Kattarp s:n/SÅH/ /Sven-Åke Hansson,Helsingborg</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2755,28 +2701,37 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Bitvis något fuktig ädellövskog med bok, ek, ask och avenbok</t>
+          <t>skog</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>SkFlora    417550</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Charlotte Wigermo</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr"/>
+          <t>Sven-Åke Hanson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Skånes Flora (1989-2006)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68566104</v>
+        <v>68566109</v>
       </c>
       <c r="B18" t="n">
-        <v>12248</v>
+        <v>4696</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2785,30 +2740,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>101282</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Blåsvart brunbagge</t>
-        </is>
+        <v>101929</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Melandrya caraboides</t>
+          <t>Trinodes hirtus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1760)</t>
+          <t>(Fabricius, 1781)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2914,10 +2864,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>68566107</v>
+        <v>68566334</v>
       </c>
       <c r="B19" t="n">
-        <v>12472</v>
+        <v>4755</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2926,30 +2876,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>102289</v>
+        <v>100857</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vasstandad trädbasbagge</t>
+          <t>Robust tickgnagare</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lissodema denticolle</t>
+          <t>Dorcatoma robusta</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Gyllenhal, 1813)</t>
+          <t>Strand, 1938</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2969,14 +2919,14 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Tursköp 12, Sk</t>
+          <t>Tursköp 10, Sk</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>359815.1473649645</v>
+        <v>359697.9757689129</v>
       </c>
       <c r="R19" t="n">
-        <v>6224655.970964281</v>
+        <v>6224625.804638037</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3003,19 +2953,19 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
+          <t>2017-05-15</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
           <t>2017-06-15</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>2017-07-27</t>
-        </is>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
@@ -3023,7 +2973,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ihålig ask</t>
+          <t>Bokstubbe med fnösktickor</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3055,10 +3005,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68566110</v>
+        <v>68566104</v>
       </c>
       <c r="B20" t="n">
-        <v>8834</v>
+        <v>12248</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3067,25 +3017,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100928</v>
+        <v>101282</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hålskenknäppare</t>
+          <t>Blåsvart brunbagge</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Eucnemis capucinus</t>
+          <t>Melandrya caraboides</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Ahrens, 1812</t>
+          <t>(Linnaeus, 1760)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3196,10 +3146,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>68566114</v>
+        <v>68566107</v>
       </c>
       <c r="B21" t="n">
-        <v>22811</v>
+        <v>12472</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3212,21 +3162,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>101152</v>
+        <v>102289</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Getinglik svampmygga</t>
+          <t>Vasstandad trädbasbagge</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Keroplatus tipuloides</t>
+          <t>Lissodema denticolle</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bosc, 1792</t>
+          <t>(Gyllenhal, 1813)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3251,14 +3201,14 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Tursköp 11, Sk</t>
+          <t>Tursköp 12, Sk</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>359600.8582588298</v>
+        <v>359815.1473649645</v>
       </c>
       <c r="R21" t="n">
-        <v>6224645.151314812</v>
+        <v>6224655.970964281</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3305,7 +3255,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ekstubbe</t>
+          <t>Ihålig ask</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3337,10 +3287,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>68566324</v>
+        <v>68566110</v>
       </c>
       <c r="B22" t="n">
-        <v>53883</v>
+        <v>8834</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3353,21 +3303,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100610</v>
+        <v>100928</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dvärgklokrypare</t>
+          <t>Hålskenknäppare</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cheiridium museorum</t>
+          <t>Eucnemis capucinus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Leach, 1817)</t>
+          <t>Ahrens, 1812</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3392,14 +3342,14 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Tursköp 11, Sk</t>
+          <t>Tursköp 12, Sk</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>359600.8582588298</v>
+        <v>359815.1473649645</v>
       </c>
       <c r="R22" t="n">
-        <v>6224645.151314812</v>
+        <v>6224655.970964281</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3426,7 +3376,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2017-05-15</t>
+          <t>2017-06-15</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3436,7 +3386,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2017-06-15</t>
+          <t>2017-07-27</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3446,7 +3396,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ekstubbe</t>
+          <t>Ihålig ask</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3478,10 +3428,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>68566332</v>
+        <v>68566114</v>
       </c>
       <c r="B23" t="n">
-        <v>12383</v>
+        <v>22811</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3494,21 +3444,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>101356</v>
+        <v>101152</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fyrfläckad vedsvampbagge</t>
+          <t>Getinglik svampmygga</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Mycetophagus quadriguttatus</t>
+          <t>Keroplatus tipuloides</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Müller, 1821</t>
+          <t>Bosc, 1792</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3533,14 +3483,14 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Tursköp 10, Sk</t>
+          <t>Tursköp 11, Sk</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>359697.9757689129</v>
+        <v>359600.8582588298</v>
       </c>
       <c r="R23" t="n">
-        <v>6224625.804638037</v>
+        <v>6224645.151314812</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3567,7 +3517,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2017-05-15</t>
+          <t>2017-06-15</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3577,7 +3527,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2017-06-15</t>
+          <t>2017-07-27</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3587,7 +3537,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Bokstubbe med fnösktickor</t>
+          <t>Ekstubbe</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3619,10 +3569,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>68566320</v>
+        <v>68566324</v>
       </c>
       <c r="B24" t="n">
-        <v>12763</v>
+        <v>53883</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3635,16 +3585,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100650</v>
+        <v>100610</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Dvärgklokrypare</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Synchita variegata</t>
+          <t>Cheiridium museorum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hellwig, 1792</t>
+          <t>(Leach, 1817)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3669,14 +3624,14 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Tursköp 12, Sk</t>
+          <t>Tursköp 11, Sk</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>359815.1473649645</v>
+        <v>359600.8582588298</v>
       </c>
       <c r="R24" t="n">
-        <v>6224655.970964281</v>
+        <v>6224645.151314812</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3723,7 +3678,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ihålig ask</t>
+          <t>Ekstubbe</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3755,10 +3710,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>68566111</v>
+        <v>68566332</v>
       </c>
       <c r="B25" t="n">
-        <v>8999</v>
+        <v>12383</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3771,21 +3726,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100179</v>
+        <v>101356</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dvärgstumpbagge</t>
+          <t>Fyrfläckad vedsvampbagge</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Aeletes atomarius</t>
+          <t>Mycetophagus quadriguttatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Aubé, 1842)</t>
+          <t>Müller, 1821</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3810,14 +3765,14 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Tursköp 12, Sk</t>
+          <t>Tursköp 10, Sk</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>359815.1473649645</v>
+        <v>359697.9757689129</v>
       </c>
       <c r="R25" t="n">
-        <v>6224655.970964281</v>
+        <v>6224625.804638037</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3844,19 +3799,19 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
+          <t>2017-05-15</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
           <t>2017-06-15</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>2017-07-27</t>
-        </is>
-      </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
@@ -3864,7 +3819,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ihålig ask</t>
+          <t>Bokstubbe med fnösktickor</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3896,10 +3851,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>68566322</v>
+        <v>68566320</v>
       </c>
       <c r="B26" t="n">
-        <v>11421</v>
+        <v>12763</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3912,16 +3867,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>101600</v>
+        <v>100650</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Plectophloeus nubigena</t>
+          <t>Synchita variegata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Reitter, 1877)</t>
+          <t>Hellwig, 1792</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4032,10 +3987,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>68566121</v>
+        <v>68566111</v>
       </c>
       <c r="B27" t="n">
-        <v>22811</v>
+        <v>8999</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4048,26 +4003,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>101152</v>
+        <v>100179</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Getinglik svampmygga</t>
+          <t>Dvärgstumpbagge</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Keroplatus tipuloides</t>
+          <t>Aeletes atomarius</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Bosc, 1792</t>
+          <t>(Aubé, 1842)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4087,14 +4042,14 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Tursköp 10, Sk</t>
+          <t>Tursköp 12, Sk</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>359697.9757689129</v>
+        <v>359815.1473649645</v>
       </c>
       <c r="R27" t="n">
-        <v>6224625.804638037</v>
+        <v>6224655.970964281</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4141,7 +4096,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Bokstubbe med fnösktickor</t>
+          <t>Ihålig ask</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4173,10 +4128,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>68566105</v>
+        <v>68566322</v>
       </c>
       <c r="B28" t="n">
-        <v>12582</v>
+        <v>11421</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4189,21 +4144,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100713</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Tvåfärgad barksvartbagge</t>
-        </is>
+        <v>101600</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Corticeus bicolor</t>
+          <t>Plectophloeus nubigena</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Olivier, 1790)</t>
+          <t>(Reitter, 1877)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -4262,17 +4212,17 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
+          <t>2017-05-15</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
           <t>2017-06-15</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>2017-07-27</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -4314,10 +4264,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>68566335</v>
+        <v>68566121</v>
       </c>
       <c r="B29" t="n">
-        <v>4714</v>
+        <v>22811</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4330,21 +4280,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100297</v>
+        <v>101152</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gråbandad trägnagare</t>
+          <t>Getinglik svampmygga</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hemicoelus costatus</t>
+          <t>Keroplatus tipuloides</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Aragona, 1830)</t>
+          <t>Bosc, 1792</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -4403,7 +4353,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2017-05-15</t>
+          <t>2017-06-15</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4413,7 +4363,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2017-06-15</t>
+          <t>2017-07-27</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4455,10 +4405,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>71063230</v>
+        <v>68566105</v>
       </c>
       <c r="B30" t="n">
-        <v>93145</v>
+        <v>12582</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4467,44 +4417,60 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2667</v>
+        <v>100713</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Tvåfärgad barksvartbagge</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Corticeus bicolor</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+          <t>(Olivier, 1790)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Tursköp, Sk</t>
+          <t>Tursköp 12, Sk</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>359511.5611424138</v>
+        <v>359815.1473649645</v>
       </c>
       <c r="R30" t="n">
-        <v>6224834.808075418</v>
+        <v>6224655.970964281</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4528,7 +4494,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2017-06-15</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4538,7 +4504,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2017-07-27</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4546,6 +4512,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Ihålig ask</t>
+        </is>
+      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
@@ -4554,26 +4525,31 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Bitvis något fuktig ädellövskog med bok, ek, ask och avenbok</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Jesper Hansson</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Jesper Hansson</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>71063173</v>
+        <v>68566335</v>
       </c>
       <c r="B31" t="n">
-        <v>73593</v>
+        <v>4714</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4582,43 +4558,60 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1458</v>
+        <v>100297</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grå skärelav</t>
+          <t>Gråbandad trägnagare</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dendrographa decolorans</t>
+          <t>Hemicoelus costatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Turner &amp; Borrer ex Sm.) Ertz &amp; Tehler</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+          <t>(Aragona, 1830)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Tursköp, Sk</t>
+          <t>Tursköp 10, Sk</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>359415.8877173595</v>
+        <v>359697.9757689129</v>
       </c>
       <c r="R31" t="n">
-        <v>6225034.143455975</v>
+        <v>6224625.804638037</v>
       </c>
       <c r="S31" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4642,7 +4635,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2017-05-15</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4652,7 +4645,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2017-06-15</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4660,6 +4653,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Bokstubbe med fnösktickor</t>
+        </is>
+      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
@@ -4668,26 +4666,31 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Bitvis något fuktig ädellövskog med bok, ek, ask och avenbok</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Jesper Hansson</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Jesper Hansson</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>71063108</v>
+        <v>71063230</v>
       </c>
       <c r="B32" t="n">
-        <v>77583</v>
+        <v>93145</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4700,47 +4703,40 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>656</v>
+        <v>2667</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Getlav</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Flavoparmelia caperata</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hale</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>(Hedw.) Huebener</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Tursköp, Sk</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>359696.8378351206</v>
+        <v>359511.5611424138</v>
       </c>
       <c r="R32" t="n">
-        <v>6224574.002095799</v>
+        <v>6224834.808075418</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4780,11 +4776,6 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Mycket rikligt på en ek i brynet samt en bål på asken väster om denna.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4811,10 +4802,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>71063235</v>
+        <v>71063173</v>
       </c>
       <c r="B33" t="n">
-        <v>73678</v>
+        <v>73593</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4827,21 +4818,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6439</v>
+        <v>1458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Grå skärelav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Dendrographa decolorans</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Turner &amp; Borrer ex Sm.) Ertz &amp; Tehler</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4853,13 +4844,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>359511.5611424138</v>
+        <v>359415.8877173595</v>
       </c>
       <c r="R33" t="n">
-        <v>6224834.808075418</v>
+        <v>6225034.143455975</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4925,10 +4916,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>71811373</v>
+        <v>71063108</v>
       </c>
       <c r="B34" t="n">
-        <v>57064</v>
+        <v>77583</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4937,48 +4928,51 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>103055</v>
+        <v>656</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Getlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Flavoparmelia caperata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(L.) Hale</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Helsingborg Västraby 24:1, Sk</t>
+          <t>Tursköp, Sk</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>359300.2142159709</v>
+        <v>359696.8378351206</v>
       </c>
       <c r="R34" t="n">
-        <v>6224964.368659236</v>
+        <v>6224574.002095799</v>
       </c>
       <c r="S34" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -5002,7 +4996,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2018-06-10</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -5012,12 +5006,17 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2018-06-10</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Mycket rikligt på en ek i brynet samt en bål på asken väster om denna.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5032,22 +5031,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Jesper Hansson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Jesper Hansson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>71810711</v>
+        <v>71063235</v>
       </c>
       <c r="B35" t="n">
-        <v>73544</v>
+        <v>73678</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5056,25 +5055,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1116</v>
+        <v>6439</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Orangepudrad klotterlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alyxoria ochrocheila</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Nyl.) Ertz &amp; Tehler</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -5082,14 +5081,14 @@
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Helsingborg Västraby 24:1, Sk</t>
+          <t>Tursköp, Sk</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>359328.6424418495</v>
+        <v>359511.5611424138</v>
       </c>
       <c r="R35" t="n">
-        <v>6224911.598877688</v>
+        <v>6224834.808075418</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -5116,7 +5115,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -5126,7 +5125,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -5142,46 +5141,26 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>ask</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>Vedyta på död ved</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Wood surface of dead wood # Fraxinus excelsior</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Jesper Hansson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Jesper Hansson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>71811529</v>
+        <v>71811373</v>
       </c>
       <c r="B36" t="n">
-        <v>75910</v>
+        <v>57064</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5194,39 +5173,44 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1342</v>
+        <v>103055</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bokvårtlav</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pyrenula nitida</t>
+          <t>Emberiza citrinella</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Weigel) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>359347.1474515465</v>
+        <v>359300.2142159709</v>
       </c>
       <c r="R36" t="n">
-        <v>6224845.777185508</v>
+        <v>6224964.368659236</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -5276,21 +5260,6 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>avenbok</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Carpinus betulus</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Carpinus betulus</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -5307,10 +5276,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>71810431</v>
+        <v>71810711</v>
       </c>
       <c r="B37" t="n">
-        <v>73593</v>
+        <v>73544</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5319,25 +5288,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1458</v>
+        <v>1116</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Grå skärelav</t>
+          <t>Orangepudrad klotterlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dendrographa decolorans</t>
+          <t>Alyxoria ochrocheila</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Turner &amp; Borrer ex Sm.) Ertz &amp; Tehler</t>
+          <t>(Nyl.) Ertz &amp; Tehler</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -5349,13 +5318,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>359239.3899250174</v>
+        <v>359328.6424418495</v>
       </c>
       <c r="R37" t="n">
-        <v>6224983.08816164</v>
+        <v>6224911.598877688</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5408,17 +5377,22 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>skogsek</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>Quercus robur</t>
+          <t>Fraxinus excelsior</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Vedyta på död ved</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Quercus robur</t>
+          <t>Wood surface of dead wood # Fraxinus excelsior</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5436,7 +5410,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>71811575</v>
+        <v>71811529</v>
       </c>
       <c r="B38" t="n">
         <v>75910</v>
@@ -5478,10 +5452,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>359381.1171611774</v>
+        <v>359347.1474515465</v>
       </c>
       <c r="R38" t="n">
-        <v>6224893.71190527</v>
+        <v>6224845.777185508</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5565,10 +5539,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>71810556</v>
+        <v>71810431</v>
       </c>
       <c r="B39" t="n">
-        <v>75910</v>
+        <v>73593</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5577,25 +5551,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1342</v>
+        <v>1458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bokvårtlav</t>
+          <t>Grå skärelav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pyrenula nitida</t>
+          <t>Dendrographa decolorans</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Weigel) Ach.</t>
+          <t>(Turner &amp; Borrer ex Sm.) Ertz &amp; Tehler</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5607,10 +5581,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>359282.5983292259</v>
+        <v>359239.3899250174</v>
       </c>
       <c r="R39" t="n">
-        <v>6224904.193069436</v>
+        <v>6224983.08816164</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5666,17 +5640,17 @@
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>avenbok</t>
+          <t>skogsek</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>Carpinus betulus</t>
+          <t>Quercus robur</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Carpinus betulus</t>
+          <t>Quercus robur</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5694,10 +5668,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>71809650</v>
+        <v>71811575</v>
       </c>
       <c r="B40" t="n">
-        <v>73593</v>
+        <v>75910</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5706,25 +5680,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1458</v>
+        <v>1342</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Grå skärelav</t>
+          <t>Bokvårtlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dendrographa decolorans</t>
+          <t>Pyrenula nitida</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Turner &amp; Borrer ex Sm.) Ertz &amp; Tehler</t>
+          <t>(Weigel) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5736,13 +5710,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>359234.7537312623</v>
+        <v>359381.1171611774</v>
       </c>
       <c r="R40" t="n">
-        <v>6225130.941725492</v>
+        <v>6224893.71190527</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5766,7 +5740,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2018-06-10</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5776,7 +5750,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2018-06-10</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5795,17 +5769,17 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>skogsek</t>
+          <t>avenbok</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Quercus robur</t>
+          <t>Carpinus betulus</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Quercus robur</t>
+          <t>Carpinus betulus</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5823,10 +5797,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>71810849</v>
+        <v>71810556</v>
       </c>
       <c r="B41" t="n">
-        <v>73544</v>
+        <v>75910</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5839,21 +5813,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1116</v>
+        <v>1342</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Orangepudrad klotterlav</t>
+          <t>Bokvårtlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alyxoria ochrocheila</t>
+          <t>Pyrenula nitida</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Nyl.) Ertz &amp; Tehler</t>
+          <t>(Weigel) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5865,10 +5839,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>359332.901906807</v>
+        <v>359282.5983292259</v>
       </c>
       <c r="R41" t="n">
-        <v>6224582.034341889</v>
+        <v>6224904.193069436</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5895,7 +5869,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2018-06-10</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5905,7 +5879,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2018-06-10</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5921,6 +5895,21 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>avenbok</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Carpinus betulus</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Carpinus betulus</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5937,10 +5926,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>71810672</v>
+        <v>71809650</v>
       </c>
       <c r="B42" t="n">
-        <v>75910</v>
+        <v>73593</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5949,25 +5938,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1342</v>
+        <v>1458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bokvårtlav</t>
+          <t>Grå skärelav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pyrenula nitida</t>
+          <t>Dendrographa decolorans</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Weigel) Ach.</t>
+          <t>(Turner &amp; Borrer ex Sm.) Ertz &amp; Tehler</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5979,13 +5968,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>359328.6424418495</v>
+        <v>359234.7537312623</v>
       </c>
       <c r="R42" t="n">
-        <v>6224911.598877688</v>
+        <v>6225130.941725492</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -6035,6 +6024,21 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>skogsek</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Quercus robur</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Quercus robur</t>
+        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -6051,10 +6055,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>71811362</v>
+        <v>71810849</v>
       </c>
       <c r="B43" t="n">
-        <v>92939</v>
+        <v>73544</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -6063,44 +6067,43 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2779</v>
+        <v>1116</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Orangepudrad klotterlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Alyxoria ochrocheila</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Nyl.) Ertz &amp; Tehler</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>359445.2825692705</v>
+        <v>359332.901906807</v>
       </c>
       <c r="R43" t="n">
-        <v>6224857.605593262</v>
+        <v>6224582.034341889</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -6150,21 +6153,6 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>ask</t>
-        </is>
-      </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
-        </is>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
@@ -6181,10 +6169,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>71811070</v>
+        <v>71810672</v>
       </c>
       <c r="B44" t="n">
-        <v>9310</v>
+        <v>75910</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6193,50 +6181,43 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>105076</v>
+        <v>1342</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Noshornsoxe</t>
+          <t>Bokvårtlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Sinodendron cylindricum</t>
+          <t>Pyrenula nitida</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Weigel) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>359529.6004437385</v>
+        <v>359328.6424418495</v>
       </c>
       <c r="R44" t="n">
-        <v>6224805.789581168</v>
+        <v>6224911.598877688</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -6260,7 +6241,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2018-06-10</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -6270,7 +6251,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2018-06-10</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -6286,26 +6267,6 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ44" t="inlineStr">
-        <is>
-          <t>ask</t>
-        </is>
-      </c>
-      <c r="AK44" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
-        </is>
-      </c>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>Inuti död ved</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>Inside dead wood # Fraxinus excelsior</t>
-        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
@@ -6322,10 +6283,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>71810623</v>
+        <v>71811362</v>
       </c>
       <c r="B45" t="n">
-        <v>75910</v>
+        <v>92939</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6334,43 +6295,44 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1342</v>
+        <v>2779</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bokvårtlav</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Pyrenula nitida</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Weigel) Ach.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>359325.0022183122</v>
+        <v>359445.2825692705</v>
       </c>
       <c r="R45" t="n">
-        <v>6224902.8003176</v>
+        <v>6224857.605593262</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -6394,7 +6356,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2018-06-10</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -6404,7 +6366,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2018-06-10</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -6423,17 +6385,17 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>avenbok</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Carpinus betulus</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Carpinus betulus</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6451,10 +6413,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>71810452</v>
+        <v>71811070</v>
       </c>
       <c r="B46" t="n">
-        <v>29897</v>
+        <v>9310</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6467,26 +6429,30 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>200985</v>
+        <v>105076</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blanksvart trämyra</t>
+          <t>Noshornsoxe</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lasius fuliginosus</t>
+          <t>Sinodendron cylindricum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Latreille, 1798)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -6496,10 +6462,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>359239.3899250174</v>
+        <v>359529.6004437385</v>
       </c>
       <c r="R46" t="n">
-        <v>6224983.08816164</v>
+        <v>6224805.789581168</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6526,7 +6492,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2018-06-10</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -6536,7 +6502,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2018-06-10</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -6555,17 +6521,22 @@
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>skogsek</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>Quercus robur</t>
+          <t>Fraxinus excelsior</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>Inuti död ved</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Quercus robur</t>
+          <t>Inside dead wood # Fraxinus excelsior</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6583,10 +6554,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>71810631</v>
+        <v>71810623</v>
       </c>
       <c r="B47" t="n">
-        <v>79480</v>
+        <v>75910</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6599,21 +6570,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1182</v>
+        <v>1342</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Violettgrå porlav</t>
+          <t>Bokvårtlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lepra multipuncta</t>
+          <t>Pyrenula nitida</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Turner) Hafellner</t>
+          <t>(Weigel) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6712,10 +6683,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>71810459</v>
+        <v>71810452</v>
       </c>
       <c r="B48" t="n">
-        <v>73523</v>
+        <v>29897</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6724,30 +6695,33 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>101</v>
+        <v>200985</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Matt pricklav</t>
+          <t>Blanksvart trämyra</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pachnolepia pruinata</t>
+          <t>Lasius fuliginosus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Pers.) Frisch &amp; G.Thor</t>
+          <t>(Latreille, 1798)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
@@ -6841,10 +6815,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>71811365</v>
+        <v>71810631</v>
       </c>
       <c r="B49" t="n">
-        <v>100515</v>
+        <v>79480</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6853,48 +6827,43 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>223246</v>
+        <v>1182</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Violettgrå porlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Lepra multipuncta</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>(Turner) Hafellner</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>359445.2825692705</v>
+        <v>359325.0022183122</v>
       </c>
       <c r="R49" t="n">
-        <v>6224857.605593262</v>
+        <v>6224902.8003176</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6918,7 +6887,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2018-06-10</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6928,7 +6897,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2018-06-10</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6944,6 +6913,21 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>avenbok</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Carpinus betulus</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Carpinus betulus</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -6960,10 +6944,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>71985305</v>
+        <v>71810459</v>
       </c>
       <c r="B50" t="n">
-        <v>93142</v>
+        <v>73523</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6972,41 +6956,40 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2668</v>
+        <v>101</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Matt pricklav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Homalia trichomanoides</t>
+          <t>Pachnolepia pruinata</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Pers.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>359410.6739073505</v>
+        <v>359239.3899250174</v>
       </c>
       <c r="R50" t="n">
-        <v>6225045.461846462</v>
+        <v>6224983.08816164</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -7033,7 +7016,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2018-06-23</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -7043,7 +7026,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2018-06-23</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -7057,18 +7040,22 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>Sten/berg på land</t>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>skogsek</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Quercus robur</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Stone/rock on land</t>
+          <t>Quercus robur</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -7086,10 +7073,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>71985276</v>
+        <v>71811365</v>
       </c>
       <c r="B51" t="n">
-        <v>101325</v>
+        <v>100515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -7098,53 +7085,48 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>222056</v>
+        <v>223246</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Circaea lutetiana</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Huds.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>blomknopp</t>
+          <t>i frukt</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>359393.4685375151</v>
+        <v>359445.2825692705</v>
       </c>
       <c r="R51" t="n">
-        <v>6225082.812378295</v>
+        <v>6224857.605593262</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -7168,7 +7150,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2018-06-23</t>
+          <t>2018-06-10</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -7178,7 +7160,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2018-06-23</t>
+          <t>2018-06-10</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -7192,7 +7174,6 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -7211,10 +7192,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>71985144</v>
+        <v>71985305</v>
       </c>
       <c r="B52" t="n">
-        <v>73593</v>
+        <v>93142</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -7227,36 +7208,37 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1458</v>
+        <v>2668</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Grå skärelav</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Dendrographa decolorans</t>
+          <t>Homalia trichomanoides</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Turner &amp; Borrer ex Sm.) Ertz &amp; Tehler</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>359396.5581809888</v>
+        <v>359410.6739073505</v>
       </c>
       <c r="R52" t="n">
-        <v>6225142.905209992</v>
+        <v>6225045.461846462</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7311,19 +7293,14 @@
       <c r="AG52" t="b">
         <v>0</v>
       </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>ask</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>Sten/berg på land</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Stone/rock on land</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -7341,10 +7318,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>71985288</v>
+        <v>71985276</v>
       </c>
       <c r="B53" t="n">
-        <v>92931</v>
+        <v>101325</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7357,37 +7334,46 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2755</v>
+        <v>222056</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skuggsprötmossa</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Eurhynchium striatum</t>
+          <t>Circaea lutetiana</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>359388.5674906038</v>
+        <v>359393.4685375151</v>
       </c>
       <c r="R53" t="n">
-        <v>6225035.597562837</v>
+        <v>6225082.812378295</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7457,10 +7443,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>71985095</v>
+        <v>71985144</v>
       </c>
       <c r="B54" t="n">
-        <v>79104</v>
+        <v>73593</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7473,21 +7459,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>230185</v>
+        <v>1458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Grå skärelav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Thelotrema lepadinum</t>
+          <t>Dendrographa decolorans</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Turner &amp; Borrer ex Sm.) Ertz &amp; Tehler</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -7499,10 +7485,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>359450.9316608796</v>
+        <v>359396.5581809888</v>
       </c>
       <c r="R54" t="n">
-        <v>6225148.923588213</v>
+        <v>6225142.905209992</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7547,11 +7533,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>En bål på basen av avenbok</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
@@ -7564,17 +7545,17 @@
       </c>
       <c r="AJ54" t="inlineStr">
         <is>
-          <t>avenbok</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="AK54" t="inlineStr">
         <is>
-          <t>Carpinus betulus</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Carpinus betulus</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7592,10 +7573,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>71985173</v>
+        <v>71985288</v>
       </c>
       <c r="B55" t="n">
-        <v>96370</v>
+        <v>92931</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7608,46 +7589,37 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>219875</v>
+        <v>2755</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Skuggsprötmossa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Platanthera chlorantha</t>
+          <t>Eurhynchium striatum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Custer) Rchb.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Hedw.) Schimp.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>359397.7471128607</v>
+        <v>359388.5674906038</v>
       </c>
       <c r="R55" t="n">
-        <v>6225145.095582924</v>
+        <v>6225035.597562837</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7717,10 +7689,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>71985284</v>
+        <v>71985095</v>
       </c>
       <c r="B56" t="n">
-        <v>92939</v>
+        <v>79104</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7733,37 +7705,36 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2779</v>
+        <v>230185</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Thelotrema lepadinum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>359388.5674906038</v>
+        <v>359450.9316608796</v>
       </c>
       <c r="R56" t="n">
-        <v>6225035.597562837</v>
+        <v>6225148.923588213</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7810,7 +7781,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Här och var på främst ask</t>
+          <t>En bål på basen av avenbok</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7825,17 +7796,17 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>avenbok</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Carpinus betulus</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Carpinus betulus</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7853,10 +7824,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>71985311</v>
+        <v>71985173</v>
       </c>
       <c r="B57" t="n">
-        <v>57577</v>
+        <v>96370</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7869,28 +7840,35 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>208249</v>
+        <v>219875</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Platanthera chlorantha</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>(Custer) Rchb.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7898,10 +7876,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>359402.4694734857</v>
+        <v>359397.7471128607</v>
       </c>
       <c r="R57" t="n">
-        <v>6225050.747398639</v>
+        <v>6225145.095582924</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7971,10 +7949,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>73660249</v>
+        <v>71985284</v>
       </c>
       <c r="B58" t="n">
-        <v>89380</v>
+        <v>92939</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7983,43 +7961,44 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>881</v>
+        <v>2779</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Skillerticka</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Inonotus cuticularis</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Bull.) P.Karst.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>359700.6416449748</v>
+        <v>359388.5674906038</v>
       </c>
       <c r="R58" t="n">
-        <v>6224587.813017795</v>
+        <v>6225035.597562837</v>
       </c>
       <c r="S58" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -8043,7 +8022,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2018-10-21</t>
+          <t>2018-06-23</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -8053,12 +8032,17 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2018-10-21</t>
+          <t>2018-06-23</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Här och var på främst ask</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -8073,22 +8057,17 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>bok</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>Fagus sylvatica</t>
-        </is>
-      </c>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Fagus sylvatica</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8106,10 +8085,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>75447973</v>
+        <v>71985311</v>
       </c>
       <c r="B59" t="n">
-        <v>57064</v>
+        <v>57577</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -8118,20 +8097,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>103055</v>
+        <v>208249</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -8139,28 +8118,25 @@
           <t>Linnaeus, 1758</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Turköp P14 (Vinterfågelräkningen), Västraby, Sk</t>
+          <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>359482.9834557388</v>
+        <v>359402.4694734857</v>
       </c>
       <c r="R59" t="n">
-        <v>6225257.66828883</v>
+        <v>6225050.747398639</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -8184,22 +8160,22 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2018-12-27</t>
+          <t>2018-06-23</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>08:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2018-12-27</t>
+          <t>2018-06-23</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -8208,83 +8184,71 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Christer Strid</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Christer Strid, Björn Ekelund</t>
-        </is>
-      </c>
-      <c r="AY59" t="inlineStr">
-        <is>
-          <t>Vinterfågelräkning</t>
-        </is>
-      </c>
+          <t>Lars Salomon</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>77277319</v>
+        <v>73660249</v>
       </c>
       <c r="B60" t="n">
-        <v>29897</v>
+        <v>89380</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>200985</v>
+        <v>881</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blanksvart trämyra</t>
+          <t>Skillerticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lasius fuliginosus</t>
+          <t>Inonotus cuticularis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Latreille, 1798)</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Bull.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>frispringande/krypande</t>
-        </is>
-      </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Helsingborg, Sk</t>
+          <t>Helsingborg Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>359236.4814243157</v>
+        <v>359700.6416449748</v>
       </c>
       <c r="R60" t="n">
-        <v>6224996.560659904</v>
+        <v>6224587.813017795</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -8311,22 +8275,22 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2019-04-25</t>
+          <t>2018-10-21</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2019-04-25</t>
+          <t>2018-10-21</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -8335,28 +8299,49 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>bok</t>
+        </is>
+      </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>Fagus sylvatica</t>
+        </is>
+      </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Fagus sylvatica</t>
+        </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Patrik Ulvdal</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Patrik Ulvdal</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>77276242</v>
+        <v>75447973</v>
       </c>
       <c r="B61" t="n">
-        <v>100515</v>
+        <v>57064</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -8365,47 +8350,49 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>223246</v>
+        <v>103055</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Emberiza citrinella</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Huds.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Helsingborg, Sk</t>
+          <t>Turköp P14 (Vinterfågelräkningen), Västraby, Sk</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>359366.6541289253</v>
+        <v>359482.9834557388</v>
       </c>
       <c r="R61" t="n">
-        <v>6224980.580162812</v>
+        <v>6225257.66828883</v>
       </c>
       <c r="S61" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -8429,22 +8416,22 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2019-04-25</t>
+          <t>2018-12-27</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>08:49</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2019-04-25</t>
+          <t>2018-12-27</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -8459,67 +8446,80 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Patrik Ulvdal</t>
+          <t>Christer Strid</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Patrik Ulvdal</t>
-        </is>
-      </c>
-      <c r="AY61" t="inlineStr"/>
+          <t>Christer Strid, Björn Ekelund</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr">
+        <is>
+          <t>Vinterfågelräkning</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>77276556</v>
+        <v>77277319</v>
       </c>
       <c r="B62" t="n">
-        <v>103813</v>
+        <v>29897</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>220785</v>
+        <v>200985</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Blanksvart trämyra</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Lasius fuliginosus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>(Latreille, 1798)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Helsingborg, Sk</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>359332.0821142346</v>
+        <v>359236.4814243157</v>
       </c>
       <c r="R62" t="n">
-        <v>6224880.27248195</v>
+        <v>6224996.560659904</v>
       </c>
       <c r="S62" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8585,7 +8585,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>81430971</v>
+        <v>77276242</v>
       </c>
       <c r="B63" t="n">
         <v>100515</v>
@@ -8619,19 +8619,25 @@
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Tursköps skog, NO, Sk</t>
+          <t>Helsingborg, Sk</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>359581.8357165139</v>
+        <v>359366.6541289253</v>
       </c>
       <c r="R63" t="n">
-        <v>6225206.495396418</v>
+        <v>6224980.580162812</v>
       </c>
       <c r="S63" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8655,22 +8661,22 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2008-05-27</t>
+          <t>2019-04-25</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2008-05-27</t>
+          <t>2019-04-25</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8681,35 +8687,26 @@
       </c>
       <c r="AG63" t="b">
         <v>0</v>
-      </c>
-      <c r="AI63" t="inlineStr">
-        <is>
-          <t>Fuktig lövskog</t>
-        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Stefan Andersson</t>
+          <t>Patrik Ulvdal</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Jan-Erik Hederås</t>
-        </is>
-      </c>
-      <c r="AY63" t="inlineStr">
-        <is>
-          <t>Skånes Flora Millora 2008-2015</t>
-        </is>
-      </c>
+          <t>Patrik Ulvdal</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>81430958</v>
+        <v>77276556</v>
       </c>
       <c r="B64" t="n">
-        <v>104015</v>
+        <v>103813</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8718,20 +8715,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1654</v>
+        <v>220785</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Veronica montana</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -8740,16 +8737,18 @@
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Tursköps skog, NV, Sk</t>
+          <t>Helsingborg, Sk</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>359383.562556965</v>
+        <v>359332.0821142346</v>
       </c>
       <c r="R64" t="n">
-        <v>6225104.317120794</v>
+        <v>6224880.27248195</v>
       </c>
       <c r="S64" t="n">
         <v>50</v>
@@ -8776,22 +8775,22 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2008-05-27</t>
+          <t>2019-04-25</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2008-05-27</t>
+          <t>2019-04-25</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8802,35 +8801,26 @@
       </c>
       <c r="AG64" t="b">
         <v>0</v>
-      </c>
-      <c r="AI64" t="inlineStr">
-        <is>
-          <t>skogsstig</t>
-        </is>
       </c>
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Stefan Andersson</t>
+          <t>Patrik Ulvdal</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Jan-Erik Hederås</t>
-        </is>
-      </c>
-      <c r="AY64" t="inlineStr">
-        <is>
-          <t>Skånes Flora Millora 2008-2015</t>
-        </is>
-      </c>
+          <t>Patrik Ulvdal</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>81426666</v>
+        <v>81430971</v>
       </c>
       <c r="B65" t="n">
-        <v>96185</v>
+        <v>100515</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8839,38 +8829,38 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>221918</v>
+        <v>223246</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lundvårlök</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Gagea spathacea</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Hayne) Salisb.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Tursköps skog, SV, Sk</t>
+          <t>Tursköps skog, NO, Sk</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>359490.1488691089</v>
+        <v>359581.8357165139</v>
       </c>
       <c r="R65" t="n">
-        <v>6224505.523437263</v>
+        <v>6225206.495396418</v>
       </c>
       <c r="S65" t="n">
         <v>50</v>
@@ -8897,7 +8887,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2008-04-25</t>
+          <t>2008-05-27</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -8907,7 +8897,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2008-04-25</t>
+          <t>2008-05-27</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -8926,7 +8916,7 @@
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>torr ekskog</t>
+          <t>Fuktig lövskog</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -8948,10 +8938,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>81431197</v>
+        <v>81430958</v>
       </c>
       <c r="B66" t="n">
-        <v>96356</v>
+        <v>104015</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8960,38 +8950,38 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>219847</v>
+        <v>1654</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Veronica montana</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Tursköps skog, NO, Sk</t>
+          <t>Tursköps skog, NV, Sk</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>359504.5455161758</v>
+        <v>359383.562556965</v>
       </c>
       <c r="R66" t="n">
-        <v>6224995.563190567</v>
+        <v>6225104.317120794</v>
       </c>
       <c r="S66" t="n">
         <v>50</v>
@@ -9018,7 +9008,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2011-06-13</t>
+          <t>2008-05-27</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -9028,7 +9018,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2011-06-13</t>
+          <t>2008-05-27</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -9036,11 +9026,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>1 ex</t>
-        </is>
-      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
@@ -9052,7 +9037,7 @@
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>glänta i lövskog</t>
+          <t>skogsstig</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr"/>
@@ -9074,10 +9059,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>81431151</v>
+        <v>81426666</v>
       </c>
       <c r="B67" t="n">
-        <v>96370</v>
+        <v>96185</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -9090,34 +9075,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>219875</v>
+        <v>221918</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Lundvårlök</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Platanthera chlorantha</t>
+          <t>Gagea spathacea</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Custer) Rchb.</t>
+          <t>(Hayne) Salisb.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Tursköps skog, NV, Sk</t>
+          <t>Tursköps skog, SV, Sk</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>359383.562556965</v>
+        <v>359490.1488691089</v>
       </c>
       <c r="R67" t="n">
-        <v>6225104.317120794</v>
+        <v>6224505.523437263</v>
       </c>
       <c r="S67" t="n">
         <v>50</v>
@@ -9144,7 +9129,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2011-06-13</t>
+          <t>2008-04-25</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -9154,7 +9139,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2011-06-13</t>
+          <t>2008-04-25</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -9162,11 +9147,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>RN 622886-893  130929-931, 7 ex</t>
-        </is>
-      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
@@ -9178,7 +9158,7 @@
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>fuktig lövskog</t>
+          <t>torr ekskog</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -9200,10 +9180,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>81426757</v>
+        <v>81431197</v>
       </c>
       <c r="B68" t="n">
-        <v>101854</v>
+        <v>96356</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -9216,34 +9196,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220461</v>
+        <v>219847</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cardamine flexuosa</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>With.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Tursköps skog, mitten, Sk</t>
+          <t>Tursköps skog, NO, Sk</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>359385.9279962312</v>
+        <v>359504.5455161758</v>
       </c>
       <c r="R68" t="n">
-        <v>6224904.144240533</v>
+        <v>6224995.563190567</v>
       </c>
       <c r="S68" t="n">
         <v>50</v>
@@ -9270,7 +9250,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2008-04-25</t>
+          <t>2011-06-13</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -9280,7 +9260,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2008-04-25</t>
+          <t>2011-06-13</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -9288,6 +9268,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>1 ex</t>
+        </is>
+      </c>
       <c r="AD68" t="b">
         <v>0</v>
       </c>
@@ -9299,7 +9284,7 @@
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>torr skogsväg</t>
+          <t>glänta i lövskog</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -9321,10 +9306,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>81431193</v>
+        <v>81431151</v>
       </c>
       <c r="B69" t="n">
-        <v>96361</v>
+        <v>96370</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -9337,34 +9322,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>219864</v>
+        <v>219875</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sankt pers nycklar</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Orchis mascula</t>
+          <t>Platanthera chlorantha</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Custer) Rchb.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Tursköps skog, mitten, Sk</t>
+          <t>Tursköps skog, NV, Sk</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>359284.7198075568</v>
+        <v>359383.562556965</v>
       </c>
       <c r="R69" t="n">
-        <v>6225002.778919706</v>
+        <v>6225104.317120794</v>
       </c>
       <c r="S69" t="n">
         <v>50</v>
@@ -9391,7 +9376,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2008-05-27</t>
+          <t>2011-06-13</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -9401,7 +9386,7 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2008-05-27</t>
+          <t>2011-06-13</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -9409,6 +9394,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>RN 622886-893  130929-931, 7 ex</t>
+        </is>
+      </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
@@ -9420,7 +9410,7 @@
       </c>
       <c r="AI69" t="inlineStr">
         <is>
-          <t>Skogsstig</t>
+          <t>fuktig lövskog</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -9442,10 +9432,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>88251104</v>
+        <v>81426757</v>
       </c>
       <c r="B70" t="n">
-        <v>57498</v>
+        <v>101854</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -9458,54 +9448,37 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100092</v>
+        <v>220461</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Större brunfladdermus</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Nyctalus noctula</t>
+          <t>Cardamine flexuosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Schreber, 1774)</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>ultraljudsdetektor</t>
-        </is>
-      </c>
+          <t>With.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Tursköpsskogen, Sk</t>
+          <t>Tursköps skog, mitten, Sk</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>359420.2853583867</v>
+        <v>359385.9279962312</v>
       </c>
       <c r="R70" t="n">
-        <v>6225083.046889744</v>
+        <v>6224904.144240533</v>
       </c>
       <c r="S70" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -9529,27 +9502,22 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2020-09-29</t>
+          <t>2008-04-25</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2020-09-29</t>
+          <t>2008-04-25</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>ev fler, norra skogsbrynet</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -9560,26 +9528,35 @@
       </c>
       <c r="AG70" t="b">
         <v>0</v>
+      </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>torr skogsväg</t>
+        </is>
       </c>
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Göran Paulson</t>
+          <t>Stefan Andersson</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Göran Paulson</t>
-        </is>
-      </c>
-      <c r="AY70" t="inlineStr"/>
+          <t>Jan-Erik Hederås</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr">
+        <is>
+          <t>Skånes Flora Millora 2008-2015</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>88251077</v>
+        <v>81431193</v>
       </c>
       <c r="B71" t="n">
-        <v>57503</v>
+        <v>96361</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9592,54 +9569,37 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>205995</v>
+        <v>219864</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dvärgpipistrell</t>
+          <t>Sankt pers nycklar</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Pipistrellus pygmaeus</t>
+          <t>Orchis mascula</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(W.E.Leach, 1825)</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>ultraljudsdetektor</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Tursköpsskogen, Sk</t>
+          <t>Tursköps skog, mitten, Sk</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>359420.2853583867</v>
+        <v>359284.7198075568</v>
       </c>
       <c r="R71" t="n">
-        <v>6225083.046889744</v>
+        <v>6225002.778919706</v>
       </c>
       <c r="S71" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -9663,27 +9623,22 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2020-09-29</t>
+          <t>2008-05-27</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2020-09-29</t>
+          <t>2008-05-27</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>norra skogsbrynet</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -9694,26 +9649,35 @@
       </c>
       <c r="AG71" t="b">
         <v>0</v>
+      </c>
+      <c r="AI71" t="inlineStr">
+        <is>
+          <t>Skogsstig</t>
+        </is>
       </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Göran Paulson</t>
+          <t>Stefan Andersson</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Göran Paulson</t>
-        </is>
-      </c>
-      <c r="AY71" t="inlineStr"/>
+          <t>Jan-Erik Hederås</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr">
+        <is>
+          <t>Skånes Flora Millora 2008-2015</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>95421996</v>
+        <v>88251104</v>
       </c>
       <c r="B72" t="n">
-        <v>73582</v>
+        <v>57498</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9722,44 +9686,58 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1118</v>
+        <v>100092</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Stiftklotterlav</t>
+          <t>Större brunfladdermus</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Opegrapha vermicellifera</t>
+          <t>Nyctalus noctula</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Kunze) J.R.Laundon</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>(Schreber, 1774)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>ultraljudsdetektor</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Västraby 24:1, Sk</t>
+          <t>Tursköpsskogen, Sk</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>359415.9938242248</v>
+        <v>359420.2853583867</v>
       </c>
       <c r="R72" t="n">
-        <v>6225139.480509494</v>
+        <v>6225083.046889744</v>
       </c>
       <c r="S72" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -9783,27 +9761,27 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Täcker stora delar av basen på en grov avenbok</t>
+          <t>ev fler, norra skogsbrynet</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9812,44 +9790,28 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
-      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>avenbok</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>Carpinus betulus</t>
-        </is>
-      </c>
-      <c r="AO72" t="inlineStr">
-        <is>
-          <t>Carpinus betulus</t>
-        </is>
       </c>
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Göran Paulson</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Göran Paulson</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>104752367</v>
+        <v>88251077</v>
       </c>
       <c r="B73" t="n">
-        <v>93375</v>
+        <v>57503</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9862,37 +9824,54 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2180</v>
+        <v>205995</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Dvärgpipistrell</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Pipistrellus pygmaeus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>(W.E.Leach, 1825)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>ultraljudsdetektor</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Turköp, 650 m OSO, Sk</t>
+          <t>Tursköpsskogen, Sk</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>359624.1869092627</v>
+        <v>359420.2853583867</v>
       </c>
       <c r="R73" t="n">
-        <v>6224607.040048145</v>
+        <v>6225083.046889744</v>
       </c>
       <c r="S73" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -9916,27 +9895,27 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>riklig just här men inte funnen i hela skogen i övrigt</t>
+          <t>norra skogsbrynet</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9947,45 +9926,26 @@
       </c>
       <c r="AG73" t="b">
         <v>0</v>
-      </c>
-      <c r="AI73" t="inlineStr">
-        <is>
-          <t>ek- och hedbokskog</t>
-        </is>
-      </c>
-      <c r="AO73" t="inlineStr">
-        <is>
-          <t>humus</t>
-        </is>
-      </c>
-      <c r="AR73" t="inlineStr">
-        <is>
-          <t>W-RÅk-46790</t>
-        </is>
       </c>
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Richard Åkesson</t>
+          <t>Göran Paulson</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Richard Åkesson</t>
-        </is>
-      </c>
-      <c r="AY73" t="inlineStr">
-        <is>
-          <t>Projekt Skånes mossor</t>
-        </is>
-      </c>
+          <t>Göran Paulson</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>104769799</v>
+        <v>95421996</v>
       </c>
       <c r="B74" t="n">
-        <v>93158</v>
+        <v>73582</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9994,46 +9954,44 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2818</v>
+        <v>1118</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Stiftklotterlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Opegrapha vermicellifera</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Kunze) J.R.Laundon</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>med kapsel</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Turköp, 380 m NO, Sk</t>
+          <t>Västraby 24:1, Sk</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>359282.0666403686</v>
+        <v>359415.9938242248</v>
       </c>
       <c r="R74" t="n">
-        <v>6225228.037510762</v>
+        <v>6225139.480509494</v>
       </c>
       <c r="S74" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -10057,7 +10015,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -10067,7 +10025,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -10075,68 +10033,55 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Täcker stora delar av basen på en grov avenbok</t>
+        </is>
+      </c>
       <c r="AD74" t="b">
         <v>0</v>
       </c>
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
-      <c r="AI74" t="inlineStr">
-        <is>
-          <t>hedbokskog</t>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>avenbok</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>Carpinus betulus</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>humus, stubbar, ved</t>
-        </is>
-      </c>
-      <c r="AP74" t="inlineStr">
-        <is>
-          <t>Lund-Botaniska/Zoologiska museet</t>
-        </is>
-      </c>
-      <c r="AR74" t="inlineStr">
-        <is>
-          <t>W-RÅk-46734</t>
+          <t>Carpinus betulus</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
-      <c r="AU74" t="inlineStr">
-        <is>
-          <t>Torbjörn Tyler</t>
-        </is>
-      </c>
-      <c r="AV74" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Richard Åkesson</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Richard Åkesson</t>
-        </is>
-      </c>
-      <c r="AY74" t="inlineStr">
-        <is>
-          <t>Projekt Skånes mossor</t>
-        </is>
-      </c>
+          <t>Lars Salomon</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>104769770</v>
+        <v>104752367</v>
       </c>
       <c r="B75" t="n">
-        <v>93142</v>
+        <v>93375</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -10149,42 +10094,37 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2668</v>
+        <v>2180</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Homalia trichomanoides</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>med kapsel</t>
-        </is>
-      </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Turköp, 300 m ONO, Sk</t>
+          <t>Turköp, 650 m OSO, Sk</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>359364.5320641705</v>
+        <v>359624.1869092627</v>
       </c>
       <c r="R75" t="n">
-        <v>6224983.994061266</v>
+        <v>6224607.040048145</v>
       </c>
       <c r="S75" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -10208,7 +10148,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -10218,7 +10158,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -10226,6 +10166,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>riklig just här men inte funnen i hela skogen i övrigt</t>
+        </is>
+      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
@@ -10237,35 +10182,20 @@
       </c>
       <c r="AI75" t="inlineStr">
         <is>
-          <t>ask-, hägg och avenbokskog</t>
+          <t>ek- och hedbokskog</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>bas på ask, block</t>
-        </is>
-      </c>
-      <c r="AP75" t="inlineStr">
-        <is>
-          <t>Lund-Botaniska/Zoologiska museet</t>
+          <t>humus</t>
         </is>
       </c>
       <c r="AR75" t="inlineStr">
         <is>
-          <t>W-RÅk-46762</t>
+          <t>W-RÅk-46790</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
-      <c r="AU75" t="inlineStr">
-        <is>
-          <t>Torbjörn Tyler</t>
-        </is>
-      </c>
-      <c r="AV75" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="AW75" t="inlineStr">
         <is>
           <t>Richard Åkesson</t>
@@ -10284,10 +10214,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>104769768</v>
+        <v>104769799</v>
       </c>
       <c r="B76" t="n">
-        <v>93145</v>
+        <v>93158</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -10300,34 +10230,39 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2667</v>
+        <v>2818</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>med kapsel</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Turköp, 300 m ONO, Sk</t>
+          <t>Turköp, 380 m NO, Sk</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>359364.5320641705</v>
+        <v>359282.0666403686</v>
       </c>
       <c r="R76" t="n">
-        <v>6224983.994061266</v>
+        <v>6225228.037510762</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -10383,20 +10318,35 @@
       </c>
       <c r="AI76" t="inlineStr">
         <is>
-          <t>ask- och bokskog på lera</t>
+          <t>hedbokskog</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>bas på ask</t>
+          <t>humus, stubbar, ved</t>
+        </is>
+      </c>
+      <c r="AP76" t="inlineStr">
+        <is>
+          <t>Lund-Botaniska/Zoologiska museet</t>
         </is>
       </c>
       <c r="AR76" t="inlineStr">
         <is>
-          <t>W-RÅk-46766</t>
+          <t>W-RÅk-46734</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
+      <c r="AU76" t="inlineStr">
+        <is>
+          <t>Torbjörn Tyler</t>
+        </is>
+      </c>
+      <c r="AV76" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
       <c r="AW76" t="inlineStr">
         <is>
           <t>Richard Åkesson</t>
@@ -10415,10 +10365,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>104769773</v>
+        <v>104769770</v>
       </c>
       <c r="B77" t="n">
-        <v>92931</v>
+        <v>93142</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -10431,16 +10381,16 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2755</v>
+        <v>2668</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Skuggsprötmossa</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Eurhynchium striatum</t>
+          <t>Homalia trichomanoides</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -10508,11 +10458,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>mycket riklig</t>
-        </is>
-      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
@@ -10529,7 +10474,7 @@
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>lera</t>
+          <t>bas på ask, block</t>
         </is>
       </c>
       <c r="AP77" t="inlineStr">
@@ -10539,7 +10484,7 @@
       </c>
       <c r="AR77" t="inlineStr">
         <is>
-          <t>W-RÅk-46759</t>
+          <t>W-RÅk-46762</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>
@@ -10571,10 +10516,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>104769760</v>
+        <v>104769768</v>
       </c>
       <c r="B78" t="n">
-        <v>93054</v>
+        <v>93145</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -10587,37 +10532,37 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2810</v>
+        <v>2667</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Turköp, 370 m NO, Sk</t>
+          <t>Turköp, 300 m ONO, Sk</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>359363.4408922853</v>
+        <v>359364.5320641705</v>
       </c>
       <c r="R78" t="n">
-        <v>6225103.863021492</v>
+        <v>6224983.994061266</v>
       </c>
       <c r="S78" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -10670,17 +10615,17 @@
       </c>
       <c r="AI78" t="inlineStr">
         <is>
-          <t>våtare ek- och bokskog</t>
+          <t>ask- och bokskog på lera</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
         <is>
-          <t>block</t>
+          <t>bas på ask</t>
         </is>
       </c>
       <c r="AR78" t="inlineStr">
         <is>
-          <t>W-RÅk-46778</t>
+          <t>W-RÅk-46766</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -10702,10 +10647,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>105380653</v>
+        <v>104769773</v>
       </c>
       <c r="B79" t="n">
-        <v>55978</v>
+        <v>92931</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -10714,49 +10659,46 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>102966</v>
+        <v>2755</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Gråtrut</t>
+          <t>Skuggsprötmossa</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Larus argentatus</t>
+          <t>Eurhynchium striatum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Pontoppidan, 1763</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
+          <t>(Hedw.) Schimp.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>med kapsel</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Turköp P14 (Vinterfågelräkningen), Västraby, Sk</t>
+          <t>Turköp, 300 m ONO, Sk</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>359482.9834557388</v>
+        <v>359364.5320641705</v>
       </c>
       <c r="R79" t="n">
-        <v>6225257.66828883</v>
+        <v>6224983.994061266</v>
       </c>
       <c r="S79" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -10780,22 +10722,27 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>08:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>mycket riklig</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -10807,29 +10754,59 @@
       <c r="AG79" t="b">
         <v>0</v>
       </c>
+      <c r="AI79" t="inlineStr">
+        <is>
+          <t>ask-, hägg och avenbokskog</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>lera</t>
+        </is>
+      </c>
+      <c r="AP79" t="inlineStr">
+        <is>
+          <t>Lund-Botaniska/Zoologiska museet</t>
+        </is>
+      </c>
+      <c r="AR79" t="inlineStr">
+        <is>
+          <t>W-RÅk-46759</t>
+        </is>
+      </c>
       <c r="AT79" t="inlineStr"/>
+      <c r="AU79" t="inlineStr">
+        <is>
+          <t>Torbjörn Tyler</t>
+        </is>
+      </c>
+      <c r="AV79" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Christer Strid</t>
+          <t>Richard Åkesson</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Christer Strid, Åsa Orrliden Strid</t>
+          <t>Richard Åkesson</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr">
         <is>
-          <t>Vinterfågelräkning</t>
+          <t>Projekt Skånes mossor</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>105380650</v>
+        <v>104769760</v>
       </c>
       <c r="B80" t="n">
-        <v>56521</v>
+        <v>93054</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -10838,49 +10815,41 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>103035</v>
+        <v>2810</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Kråka</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Corvus corone</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+          <t>(Hedw.) Warnst.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Turköp P14 (Vinterfågelräkningen), Västraby, Sk</t>
+          <t>Turköp, 370 m NO, Sk</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>359482.9834557388</v>
+        <v>359363.4408922853</v>
       </c>
       <c r="R80" t="n">
-        <v>6225257.66828883</v>
+        <v>6225103.863021492</v>
       </c>
       <c r="S80" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -10904,22 +10873,22 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>08:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -10930,30 +10899,45 @@
       </c>
       <c r="AG80" t="b">
         <v>0</v>
+      </c>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>våtare ek- och bokskog</t>
+        </is>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="AR80" t="inlineStr">
+        <is>
+          <t>W-RÅk-46778</t>
+        </is>
       </c>
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Christer Strid</t>
+          <t>Richard Åkesson</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Christer Strid, Åsa Orrliden Strid</t>
+          <t>Richard Åkesson</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr">
         <is>
-          <t>Vinterfågelräkning</t>
+          <t>Projekt Skånes mossor</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>107511200</v>
+        <v>105380653</v>
       </c>
       <c r="B81" t="n">
-        <v>73544</v>
+        <v>55978</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10962,41 +10946,49 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1116</v>
+        <v>102966</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Orangepudrad klotterlav</t>
+          <t>Gråtrut</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alyxoria ochrocheila</t>
+          <t>Larus argentatus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Nyl.) Ertz &amp; Tehler</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
+          <t>Pontoppidan, 1763</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Västraby Öst, Sk</t>
+          <t>Turköp P14 (Vinterfågelräkningen), Västraby, Sk</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>359401.1966829139</v>
+        <v>359482.9834557388</v>
       </c>
       <c r="R81" t="n">
-        <v>6225097.049985985</v>
+        <v>6225257.66828883</v>
       </c>
       <c r="S81" t="n">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -11020,22 +11012,22 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2019-04-25</t>
+          <t>2022-12-27</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2019-04-25</t>
+          <t>2022-12-27</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -11046,35 +11038,30 @@
       </c>
       <c r="AG81" t="b">
         <v>0</v>
-      </c>
-      <c r="AO81" t="inlineStr">
-        <is>
-          <t>Torrträd (TORRTRÄD), Gammal avenbok (GAMAVEN)</t>
-        </is>
       </c>
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Anders Engström</t>
+          <t>Christer Strid</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Via Anders Engström</t>
+          <t>Christer Strid, Åsa Orrliden Strid</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr">
         <is>
-          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+          <t>Vinterfågelräkning</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>107511201</v>
+        <v>105380650</v>
       </c>
       <c r="B82" t="n">
-        <v>73678</v>
+        <v>56521</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -11083,41 +11070,49 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6439</v>
+        <v>103035</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Kråka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Corvus corone</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Västraby Öst, Sk</t>
+          <t>Turköp P14 (Vinterfågelräkningen), Västraby, Sk</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>359401.1966829139</v>
+        <v>359482.9834557388</v>
       </c>
       <c r="R82" t="n">
-        <v>6225097.049985985</v>
+        <v>6225257.66828883</v>
       </c>
       <c r="S82" t="n">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -11141,22 +11136,22 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2019-04-25</t>
+          <t>2022-12-27</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2019-04-25</t>
+          <t>2022-12-27</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -11171,26 +11166,26 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Anders Engström</t>
+          <t>Christer Strid</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Via Anders Engström</t>
+          <t>Christer Strid, Åsa Orrliden Strid</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
         <is>
-          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+          <t>Vinterfågelräkning</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>107511199</v>
+        <v>107511200</v>
       </c>
       <c r="B83" t="n">
-        <v>75910</v>
+        <v>73544</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -11203,21 +11198,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1342</v>
+        <v>1116</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bokvårtlav</t>
+          <t>Orangepudrad klotterlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Pyrenula nitida</t>
+          <t>Alyxoria ochrocheila</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Weigel) Ach.</t>
+          <t>(Nyl.) Ertz &amp; Tehler</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -11283,6 +11278,11 @@
       </c>
       <c r="AG83" t="b">
         <v>0</v>
+      </c>
+      <c r="AO83" t="inlineStr">
+        <is>
+          <t>Torrträd (TORRTRÄD), Gammal avenbok (GAMAVEN)</t>
+        </is>
       </c>
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
@@ -11303,10 +11303,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112161763</v>
+        <v>107511201</v>
       </c>
       <c r="B84" t="n">
-        <v>56314</v>
+        <v>73678</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -11315,57 +11315,41 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>100067</v>
+        <v>6439</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Haliaeetus albicilla</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr"/>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Tursköp, Västraby, Sk</t>
+          <t>Västraby Öst, Sk</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>359556</v>
+        <v>359401.1966829139</v>
       </c>
       <c r="R84" t="n">
-        <v>6225174</v>
+        <v>6225097.049985985</v>
       </c>
       <c r="S84" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -11389,12 +11373,22 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2019-04-25</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2019-04-25</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -11409,15 +11403,253 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
+          <t>Anders Engström</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>Via Anders Engström</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr">
+        <is>
+          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>107511199</v>
+      </c>
+      <c r="B85" t="n">
+        <v>75910</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1342</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bokvårtlav</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Pyrenula nitida</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(Weigel) Ach.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Västraby Öst, Sk</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>359401.1966829139</v>
+      </c>
+      <c r="R85" t="n">
+        <v>6225097.049985985</v>
+      </c>
+      <c r="S85" t="n">
+        <v>125</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Kattarp</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>2019-04-25</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>2019-04-25</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>Anders Engström</t>
+        </is>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>Via Anders Engström</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr">
+        <is>
+          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>112161763</v>
+      </c>
+      <c r="B86" t="n">
+        <v>56346</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>100067</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Havsörn</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Haliaeetus albicilla</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Tursköp, Västraby, Sk</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>359556</v>
+      </c>
+      <c r="R86" t="n">
+        <v>6225174</v>
+      </c>
+      <c r="S86" t="n">
+        <v>50</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Kattarp</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr">
+        <is>
           <t>Henrik Ehrenberg</t>
         </is>
       </c>
-      <c r="AX84" t="inlineStr">
+      <c r="AX86" t="inlineStr">
         <is>
           <t>Henrik Ehrenberg, Monica Pedersen</t>
         </is>
       </c>
-      <c r="AY84" t="inlineStr"/>
+      <c r="AY86" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
